--- a/docs/Software Development/User-Stories/Sample MedExplorer User Stories.xlsx
+++ b/docs/Software Development/User-Stories/Sample MedExplorer User Stories.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="0" yWindow="135" windowWidth="20730" windowHeight="9465"/>
   </bookViews>
   <sheets>
-    <sheet name="Consumer" sheetId="1" r:id="rId1"/>
-    <sheet name="Professional" sheetId="2" r:id="rId2"/>
+    <sheet name="General Public" sheetId="1" r:id="rId1"/>
+    <sheet name="Clinician" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -216,12 +216,6 @@
     <t>any interactions with other medications</t>
   </si>
   <si>
-    <t>As a Professional</t>
-  </si>
-  <si>
-    <t>As a Consumer</t>
-  </si>
-  <si>
     <t>start to type</t>
   </si>
   <si>
@@ -311,6 +305,12 @@
   </si>
   <si>
     <t>tell a patient on alternative versions</t>
+  </si>
+  <si>
+    <t>As a General Public user</t>
+  </si>
+  <si>
+    <t>As a Clinician</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -498,6 +498,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -807,7 +810,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -822,15 +825,15 @@
     <col min="5" max="5" width="10.7109375" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B1" s="6"/>
       <c r="D1" s="17"/>
       <c r="E1" s="26"/>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -844,10 +847,10 @@
         <v>27</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -861,10 +864,11 @@
         <v>28</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -878,10 +882,10 @@
         <v>30</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="19" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="19" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>9</v>
       </c>
@@ -895,12 +899,12 @@
         <v>29</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -912,12 +916,12 @@
         <v>31</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="19" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="19" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>11</v>
@@ -926,15 +930,15 @@
         <v>12</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
@@ -946,12 +950,12 @@
         <v>32</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="19" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="19" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>21</v>
@@ -963,18 +967,18 @@
         <v>33</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="24" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="24" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="23"/>
       <c r="D10" s="21"/>
       <c r="E10" s="29"/>
     </row>
-    <row r="11" spans="1:5" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>14</v>
@@ -983,15 +987,15 @@
         <v>15</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>16</v>
@@ -1003,12 +1007,12 @@
         <v>34</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="19" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="19" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>40</v>
@@ -1020,10 +1024,10 @@
         <v>35</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="19" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="19" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>25</v>
       </c>
@@ -1037,12 +1041,12 @@
         <v>37</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="19" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="19" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>18</v>
@@ -1054,7 +1058,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1083,7 +1087,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1103,7 +1107,7 @@
         <v>27</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1111,53 +1115,53 @@
     </row>
     <row r="4" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1174,7 +1178,7 @@
         <v>45</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1191,7 +1195,7 @@
         <v>49</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1202,35 +1206,35 @@
         <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>55</v>
@@ -1239,15 +1243,15 @@
         <v>54</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>57</v>
@@ -1256,10 +1260,10 @@
         <v>56</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1273,12 +1277,12 @@
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
     </row>
     <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1338,7 +1342,7 @@
     </row>
     <row r="20" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>13</v>
@@ -1352,7 +1356,7 @@
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>21</v>
@@ -1380,7 +1384,7 @@
     </row>
     <row r="23" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>18</v>

--- a/docs/Software Development/User-Stories/Sample MedExplorer User Stories.xlsx
+++ b/docs/Software Development/User-Stories/Sample MedExplorer User Stories.xlsx
@@ -307,10 +307,10 @@
     <t>tell a patient on alternative versions</t>
   </si>
   <si>
-    <t>As a General Public user</t>
-  </si>
-  <si>
     <t>As a Clinician</t>
+  </si>
+  <si>
+    <t>As a General Public User</t>
   </si>
 </sst>
 </file>
@@ -827,7 +827,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1" s="6"/>
       <c r="D1" s="17"/>
@@ -1087,7 +1087,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>

--- a/docs/Software Development/User-Stories/Sample MedExplorer User Stories.xlsx
+++ b/docs/Software Development/User-Stories/Sample MedExplorer User Stories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="20730" windowHeight="9465"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="20730" windowHeight="9465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General Public" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="86">
   <si>
     <t>I want</t>
   </si>
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,9 +1071,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,8 +1297,11 @@
       <c r="D16" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E16" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1311,8 +1314,11 @@
       <c r="D17" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E17" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1325,8 +1331,11 @@
       <c r="D18" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E18" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1339,8 +1348,11 @@
       <c r="D19" s="11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="E19" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -1353,8 +1365,11 @@
       <c r="D20" s="11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E20" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -1367,8 +1382,11 @@
       <c r="D21" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E21" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1381,8 +1399,11 @@
       <c r="D22" s="11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="E22" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -1394,6 +1415,9 @@
       </c>
       <c r="D23" s="11" t="s">
         <v>38</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
